--- a/每日支出详细.xlsx
+++ b/每日支出详细.xlsx
@@ -15,8 +15,44 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="F5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+万达广场，烤猪肉盖饭</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>日期</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -27,10 +63,6 @@
   </si>
   <si>
     <t>中饭</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>午饭</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -49,12 +81,27 @@
     <t>支出项目</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>晚饭</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚饭（干锅盔）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月总计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <numFmts count="1">
+    <numFmt numFmtId="179" formatCode="yyyy/m/d;@"/>
+  </numFmts>
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,8 +133,23 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -97,6 +159,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -156,7 +224,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -176,22 +244,172 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="20">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -481,55 +699,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:Y38"/>
+  <dimension ref="B2:X40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="1"/>
+    <col min="2" max="2" width="14.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="1" customWidth="1"/>
     <col min="4" max="6" width="9" style="1"/>
     <col min="7" max="7" width="12.25" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
+    <col min="8" max="8" width="9" style="1"/>
+    <col min="9" max="9" width="15" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:25">
+    <row r="2" spans="2:24">
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
-      <c r="W2" s="8"/>
-      <c r="X2" s="8"/>
-      <c r="Y2" s="8"/>
-    </row>
-    <row r="3" spans="2:25">
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
+    </row>
+    <row r="3" spans="2:24">
       <c r="B3" s="5"/>
       <c r="C3" s="9"/>
       <c r="D3" s="2" t="s">
@@ -539,15 +758,17 @@
         <v>2</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" s="2"/>
+      <c r="I3" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
@@ -563,19 +784,16 @@
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
-    </row>
-    <row r="4" spans="2:25">
-      <c r="B4" s="3">
-        <v>11.29</v>
+    </row>
+    <row r="4" spans="2:24">
+      <c r="B4" s="10">
+        <v>42703</v>
       </c>
       <c r="C4" s="3">
-        <f>SUM(D4:CO4)</f>
+        <f>SUM(D4:CN4)</f>
         <v>145</v>
       </c>
-      <c r="D4" s="3">
-        <v>0</v>
-      </c>
+      <c r="D4" s="3"/>
       <c r="E4" s="3">
         <v>15</v>
       </c>
@@ -602,17 +820,25 @@
       <c r="V4" s="3"/>
       <c r="W4" s="3"/>
       <c r="X4" s="3"/>
-      <c r="Y4" s="3"/>
-    </row>
-    <row r="5" spans="2:25">
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
+    </row>
+    <row r="5" spans="2:24">
+      <c r="B5" s="10">
+        <v>42704</v>
+      </c>
+      <c r="C5" s="3">
+        <f>SUM(D5:CN5)</f>
+        <v>35</v>
+      </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
+      <c r="F5" s="3">
+        <v>32</v>
+      </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
+      <c r="I5" s="3">
+        <v>3</v>
+      </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
@@ -628,17 +854,21 @@
       <c r="V5" s="3"/>
       <c r="W5" s="3"/>
       <c r="X5" s="3"/>
-      <c r="Y5" s="3"/>
-    </row>
-    <row r="6" spans="2:25">
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
+    </row>
+    <row r="6" spans="2:24">
+      <c r="B6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="12">
+        <f>SUM(C4:C5)</f>
+        <v>180</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
@@ -654,11 +884,15 @@
       <c r="V6" s="3"/>
       <c r="W6" s="3"/>
       <c r="X6" s="3"/>
-      <c r="Y6" s="3"/>
-    </row>
-    <row r="7" spans="2:25">
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
+    </row>
+    <row r="7" spans="2:24">
+      <c r="B7" s="10">
+        <v>42705</v>
+      </c>
+      <c r="C7" s="3">
+        <f>SUM(D7:CN7)</f>
+        <v>0</v>
+      </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -680,11 +914,15 @@
       <c r="V7" s="3"/>
       <c r="W7" s="3"/>
       <c r="X7" s="3"/>
-      <c r="Y7" s="3"/>
-    </row>
-    <row r="8" spans="2:25">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
+    </row>
+    <row r="8" spans="2:24">
+      <c r="B8" s="10">
+        <v>42706</v>
+      </c>
+      <c r="C8" s="3">
+        <f>SUM(D8:CN8)</f>
+        <v>0</v>
+      </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -706,11 +944,15 @@
       <c r="V8" s="3"/>
       <c r="W8" s="3"/>
       <c r="X8" s="3"/>
-      <c r="Y8" s="3"/>
-    </row>
-    <row r="9" spans="2:25">
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
+    </row>
+    <row r="9" spans="2:24">
+      <c r="B9" s="10">
+        <v>42707</v>
+      </c>
+      <c r="C9" s="3">
+        <f>SUM(D9:CN9)</f>
+        <v>0</v>
+      </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -732,11 +974,15 @@
       <c r="V9" s="3"/>
       <c r="W9" s="3"/>
       <c r="X9" s="3"/>
-      <c r="Y9" s="3"/>
-    </row>
-    <row r="10" spans="2:25">
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
+    </row>
+    <row r="10" spans="2:24">
+      <c r="B10" s="10">
+        <v>42708</v>
+      </c>
+      <c r="C10" s="3">
+        <f>SUM(D10:CN10)</f>
+        <v>0</v>
+      </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -758,11 +1004,15 @@
       <c r="V10" s="3"/>
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
-      <c r="Y10" s="3"/>
-    </row>
-    <row r="11" spans="2:25">
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
+    </row>
+    <row r="11" spans="2:24">
+      <c r="B11" s="10">
+        <v>42709</v>
+      </c>
+      <c r="C11" s="3">
+        <f>SUM(D11:CN11)</f>
+        <v>0</v>
+      </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -784,11 +1034,15 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-      <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="2:25">
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
+    </row>
+    <row r="12" spans="2:24">
+      <c r="B12" s="10">
+        <v>42710</v>
+      </c>
+      <c r="C12" s="3">
+        <f>SUM(D12:CN12)</f>
+        <v>0</v>
+      </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -810,11 +1064,15 @@
       <c r="V12" s="3"/>
       <c r="W12" s="3"/>
       <c r="X12" s="3"/>
-      <c r="Y12" s="3"/>
-    </row>
-    <row r="13" spans="2:25">
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
+    </row>
+    <row r="13" spans="2:24">
+      <c r="B13" s="10">
+        <v>42711</v>
+      </c>
+      <c r="C13" s="3">
+        <f>SUM(D13:CN13)</f>
+        <v>0</v>
+      </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -836,11 +1094,15 @@
       <c r="V13" s="3"/>
       <c r="W13" s="3"/>
       <c r="X13" s="3"/>
-      <c r="Y13" s="3"/>
-    </row>
-    <row r="14" spans="2:25">
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
+    </row>
+    <row r="14" spans="2:24">
+      <c r="B14" s="10">
+        <v>42712</v>
+      </c>
+      <c r="C14" s="3">
+        <f>SUM(D14:CN14)</f>
+        <v>0</v>
+      </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -862,11 +1124,15 @@
       <c r="V14" s="3"/>
       <c r="W14" s="3"/>
       <c r="X14" s="3"/>
-      <c r="Y14" s="3"/>
-    </row>
-    <row r="15" spans="2:25">
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
+    </row>
+    <row r="15" spans="2:24">
+      <c r="B15" s="10">
+        <v>42713</v>
+      </c>
+      <c r="C15" s="3">
+        <f>SUM(D15:CN15)</f>
+        <v>0</v>
+      </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -888,11 +1154,15 @@
       <c r="V15" s="3"/>
       <c r="W15" s="3"/>
       <c r="X15" s="3"/>
-      <c r="Y15" s="3"/>
-    </row>
-    <row r="16" spans="2:25">
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
+    </row>
+    <row r="16" spans="2:24">
+      <c r="B16" s="10">
+        <v>42714</v>
+      </c>
+      <c r="C16" s="3">
+        <f>SUM(D16:CN16)</f>
+        <v>0</v>
+      </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -914,11 +1184,15 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-      <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="2:25">
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
+    </row>
+    <row r="17" spans="2:24">
+      <c r="B17" s="10">
+        <v>42715</v>
+      </c>
+      <c r="C17" s="3">
+        <f>SUM(D17:CN17)</f>
+        <v>0</v>
+      </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -940,11 +1214,15 @@
       <c r="V17" s="3"/>
       <c r="W17" s="3"/>
       <c r="X17" s="3"/>
-      <c r="Y17" s="3"/>
-    </row>
-    <row r="18" spans="2:25">
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
+    </row>
+    <row r="18" spans="2:24">
+      <c r="B18" s="10">
+        <v>42716</v>
+      </c>
+      <c r="C18" s="3">
+        <f>SUM(D18:CN18)</f>
+        <v>0</v>
+      </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -966,11 +1244,15 @@
       <c r="V18" s="3"/>
       <c r="W18" s="3"/>
       <c r="X18" s="3"/>
-      <c r="Y18" s="3"/>
-    </row>
-    <row r="19" spans="2:25">
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
+    </row>
+    <row r="19" spans="2:24">
+      <c r="B19" s="10">
+        <v>42717</v>
+      </c>
+      <c r="C19" s="3">
+        <f>SUM(D19:CN19)</f>
+        <v>0</v>
+      </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -992,11 +1274,15 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-      <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="2:25">
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
+    </row>
+    <row r="20" spans="2:24">
+      <c r="B20" s="10">
+        <v>42718</v>
+      </c>
+      <c r="C20" s="3">
+        <f>SUM(D20:CN20)</f>
+        <v>0</v>
+      </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -1018,11 +1304,15 @@
       <c r="V20" s="3"/>
       <c r="W20" s="3"/>
       <c r="X20" s="3"/>
-      <c r="Y20" s="3"/>
-    </row>
-    <row r="21" spans="2:25">
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
+    </row>
+    <row r="21" spans="2:24">
+      <c r="B21" s="10">
+        <v>42719</v>
+      </c>
+      <c r="C21" s="3">
+        <f>SUM(D21:CN21)</f>
+        <v>0</v>
+      </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -1044,11 +1334,15 @@
       <c r="V21" s="3"/>
       <c r="W21" s="3"/>
       <c r="X21" s="3"/>
-      <c r="Y21" s="3"/>
-    </row>
-    <row r="22" spans="2:25">
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
+    </row>
+    <row r="22" spans="2:24">
+      <c r="B22" s="10">
+        <v>42720</v>
+      </c>
+      <c r="C22" s="3">
+        <f>SUM(D22:CN22)</f>
+        <v>0</v>
+      </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -1070,11 +1364,15 @@
       <c r="V22" s="3"/>
       <c r="W22" s="3"/>
       <c r="X22" s="3"/>
-      <c r="Y22" s="3"/>
-    </row>
-    <row r="23" spans="2:25">
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
+    </row>
+    <row r="23" spans="2:24">
+      <c r="B23" s="10">
+        <v>42721</v>
+      </c>
+      <c r="C23" s="3">
+        <f>SUM(D23:CN23)</f>
+        <v>0</v>
+      </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -1096,11 +1394,15 @@
       <c r="V23" s="3"/>
       <c r="W23" s="3"/>
       <c r="X23" s="3"/>
-      <c r="Y23" s="3"/>
-    </row>
-    <row r="24" spans="2:25">
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
+    </row>
+    <row r="24" spans="2:24">
+      <c r="B24" s="10">
+        <v>42722</v>
+      </c>
+      <c r="C24" s="3">
+        <f>SUM(D24:CN24)</f>
+        <v>0</v>
+      </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -1122,11 +1424,15 @@
       <c r="V24" s="3"/>
       <c r="W24" s="3"/>
       <c r="X24" s="3"/>
-      <c r="Y24" s="3"/>
-    </row>
-    <row r="25" spans="2:25">
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
+    </row>
+    <row r="25" spans="2:24">
+      <c r="B25" s="10">
+        <v>42723</v>
+      </c>
+      <c r="C25" s="3">
+        <f>SUM(D25:CN25)</f>
+        <v>0</v>
+      </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -1148,11 +1454,15 @@
       <c r="V25" s="3"/>
       <c r="W25" s="3"/>
       <c r="X25" s="3"/>
-      <c r="Y25" s="3"/>
-    </row>
-    <row r="26" spans="2:25">
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
+    </row>
+    <row r="26" spans="2:24">
+      <c r="B26" s="10">
+        <v>42724</v>
+      </c>
+      <c r="C26" s="3">
+        <f>SUM(D26:CN26)</f>
+        <v>0</v>
+      </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
@@ -1174,11 +1484,15 @@
       <c r="V26" s="3"/>
       <c r="W26" s="3"/>
       <c r="X26" s="3"/>
-      <c r="Y26" s="3"/>
-    </row>
-    <row r="27" spans="2:25">
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
+    </row>
+    <row r="27" spans="2:24">
+      <c r="B27" s="10">
+        <v>42725</v>
+      </c>
+      <c r="C27" s="3">
+        <f>SUM(D27:CN27)</f>
+        <v>0</v>
+      </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -1200,11 +1514,15 @@
       <c r="V27" s="3"/>
       <c r="W27" s="3"/>
       <c r="X27" s="3"/>
-      <c r="Y27" s="3"/>
-    </row>
-    <row r="28" spans="2:25">
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
+    </row>
+    <row r="28" spans="2:24">
+      <c r="B28" s="10">
+        <v>42726</v>
+      </c>
+      <c r="C28" s="3">
+        <f>SUM(D28:CN28)</f>
+        <v>0</v>
+      </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -1226,11 +1544,15 @@
       <c r="V28" s="3"/>
       <c r="W28" s="3"/>
       <c r="X28" s="3"/>
-      <c r="Y28" s="3"/>
-    </row>
-    <row r="29" spans="2:25">
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
+    </row>
+    <row r="29" spans="2:24">
+      <c r="B29" s="10">
+        <v>42727</v>
+      </c>
+      <c r="C29" s="3">
+        <f>SUM(D29:CN29)</f>
+        <v>0</v>
+      </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
@@ -1252,11 +1574,15 @@
       <c r="V29" s="3"/>
       <c r="W29" s="3"/>
       <c r="X29" s="3"/>
-      <c r="Y29" s="3"/>
-    </row>
-    <row r="30" spans="2:25">
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
+    </row>
+    <row r="30" spans="2:24">
+      <c r="B30" s="10">
+        <v>42728</v>
+      </c>
+      <c r="C30" s="3">
+        <f>SUM(D30:CN30)</f>
+        <v>0</v>
+      </c>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
@@ -1278,11 +1604,15 @@
       <c r="V30" s="3"/>
       <c r="W30" s="3"/>
       <c r="X30" s="3"/>
-      <c r="Y30" s="3"/>
-    </row>
-    <row r="31" spans="2:25">
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
+    </row>
+    <row r="31" spans="2:24">
+      <c r="B31" s="10">
+        <v>42729</v>
+      </c>
+      <c r="C31" s="3">
+        <f>SUM(D31:CN31)</f>
+        <v>0</v>
+      </c>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
@@ -1304,11 +1634,15 @@
       <c r="V31" s="3"/>
       <c r="W31" s="3"/>
       <c r="X31" s="3"/>
-      <c r="Y31" s="3"/>
-    </row>
-    <row r="32" spans="2:25">
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
+    </row>
+    <row r="32" spans="2:24">
+      <c r="B32" s="10">
+        <v>42730</v>
+      </c>
+      <c r="C32" s="3">
+        <f>SUM(D32:CN32)</f>
+        <v>0</v>
+      </c>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
@@ -1330,11 +1664,15 @@
       <c r="V32" s="3"/>
       <c r="W32" s="3"/>
       <c r="X32" s="3"/>
-      <c r="Y32" s="3"/>
-    </row>
-    <row r="33" spans="2:25">
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
+    </row>
+    <row r="33" spans="2:24">
+      <c r="B33" s="10">
+        <v>42731</v>
+      </c>
+      <c r="C33" s="3">
+        <f>SUM(D33:CN33)</f>
+        <v>0</v>
+      </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -1356,11 +1694,15 @@
       <c r="V33" s="3"/>
       <c r="W33" s="3"/>
       <c r="X33" s="3"/>
-      <c r="Y33" s="3"/>
-    </row>
-    <row r="34" spans="2:25">
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
+    </row>
+    <row r="34" spans="2:24">
+      <c r="B34" s="10">
+        <v>42732</v>
+      </c>
+      <c r="C34" s="3">
+        <f>SUM(D34:CN34)</f>
+        <v>0</v>
+      </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -1382,11 +1724,15 @@
       <c r="V34" s="3"/>
       <c r="W34" s="3"/>
       <c r="X34" s="3"/>
-      <c r="Y34" s="3"/>
-    </row>
-    <row r="35" spans="2:25">
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
+    </row>
+    <row r="35" spans="2:24">
+      <c r="B35" s="10">
+        <v>42733</v>
+      </c>
+      <c r="C35" s="3">
+        <f>SUM(D35:CN35)</f>
+        <v>0</v>
+      </c>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
@@ -1408,11 +1754,15 @@
       <c r="V35" s="3"/>
       <c r="W35" s="3"/>
       <c r="X35" s="3"/>
-      <c r="Y35" s="3"/>
-    </row>
-    <row r="36" spans="2:25">
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
+    </row>
+    <row r="36" spans="2:24">
+      <c r="B36" s="10">
+        <v>42734</v>
+      </c>
+      <c r="C36" s="3">
+        <f>SUM(D36:CN36)</f>
+        <v>0</v>
+      </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -1434,11 +1784,15 @@
       <c r="V36" s="3"/>
       <c r="W36" s="3"/>
       <c r="X36" s="3"/>
-      <c r="Y36" s="3"/>
-    </row>
-    <row r="37" spans="2:25">
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
+    </row>
+    <row r="37" spans="2:24">
+      <c r="B37" s="10">
+        <v>42735</v>
+      </c>
+      <c r="C37" s="3">
+        <f>SUM(D37:CN37)</f>
+        <v>0</v>
+      </c>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
@@ -1460,17 +1814,21 @@
       <c r="V37" s="3"/>
       <c r="W37" s="3"/>
       <c r="X37" s="3"/>
-      <c r="Y37" s="3"/>
-    </row>
-    <row r="38" spans="2:25">
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
+    </row>
+    <row r="38" spans="2:24">
+      <c r="B38" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="12">
+        <f>SUM(C7:C37)</f>
+        <v>0</v>
+      </c>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
@@ -1486,17 +1844,82 @@
       <c r="V38" s="3"/>
       <c r="W38" s="3"/>
       <c r="X38" s="3"/>
-      <c r="Y38" s="3"/>
+    </row>
+    <row r="39" spans="2:24">
+      <c r="B39" s="10">
+        <v>42736</v>
+      </c>
+      <c r="C39" s="3">
+        <f>SUM(D39:CN39)</f>
+        <v>0</v>
+      </c>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24">
+      <c r="B40" s="10">
+        <v>42737</v>
+      </c>
+      <c r="C40" s="3">
+        <f>SUM(D40:CN40)</f>
+        <v>0</v>
+      </c>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B2:B3"/>
-    <mergeCell ref="D2:Y2"/>
+    <mergeCell ref="D2:X2"/>
     <mergeCell ref="C2:C3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="D4:I5 D7:I37 D39:I40">
+    <cfRule type="containsBlanks" dxfId="0" priority="4">
+      <formula>LEN(TRIM(D4))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/每日支出详细.xlsx
+++ b/每日支出详细.xlsx
@@ -47,12 +47,64 @@
         </r>
       </text>
     </comment>
+    <comment ref="J7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+优衣库，羽绒背心</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+高夫</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>日期</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -93,13 +145,21 @@
     <t>月总计</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>买衣服</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买洗面奶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="179" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -237,6 +297,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -255,20 +324,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill>
@@ -287,125 +347,6 @@
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
         </patternFill>
       </fill>
     </dxf>
@@ -702,7 +643,7 @@
   <dimension ref="B2:X40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -718,39 +659,39 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:24">
-      <c r="B2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="8" t="s">
+      <c r="B2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
-      <c r="U2" s="7"/>
-      <c r="V2" s="7"/>
-      <c r="W2" s="7"/>
-      <c r="X2" s="7"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="10"/>
+      <c r="V2" s="10"/>
+      <c r="W2" s="10"/>
+      <c r="X2" s="10"/>
     </row>
     <row r="3" spans="2:24">
-      <c r="B3" s="5"/>
-      <c r="C3" s="9"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="12"/>
       <c r="D3" s="2" t="s">
         <v>1</v>
       </c>
@@ -769,8 +710,12 @@
       <c r="I3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
+      <c r="J3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -786,7 +731,7 @@
       <c r="X3" s="2"/>
     </row>
     <row r="4" spans="2:24">
-      <c r="B4" s="10">
+      <c r="B4" s="4">
         <v>42703</v>
       </c>
       <c r="C4" s="3">
@@ -822,7 +767,7 @@
       <c r="X4" s="3"/>
     </row>
     <row r="5" spans="2:24">
-      <c r="B5" s="10">
+      <c r="B5" s="4">
         <v>42704</v>
       </c>
       <c r="C5" s="3">
@@ -856,19 +801,19 @@
       <c r="X5" s="3"/>
     </row>
     <row r="6" spans="2:24">
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="6">
         <f>SUM(C4:C5)</f>
         <v>180</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
@@ -886,21 +831,27 @@
       <c r="X6" s="3"/>
     </row>
     <row r="7" spans="2:24">
-      <c r="B7" s="10">
+      <c r="B7" s="4">
         <v>42705</v>
       </c>
       <c r="C7" s="3">
-        <f>SUM(D7:CN7)</f>
-        <v>0</v>
+        <f t="shared" ref="C7:C37" si="0">SUM(D7:CN7)</f>
+        <v>470</v>
       </c>
       <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
+      <c r="E7" s="3">
+        <v>13</v>
+      </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
+      <c r="J7" s="3">
+        <v>399</v>
+      </c>
+      <c r="K7" s="3">
+        <v>58</v>
+      </c>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
@@ -916,11 +867,11 @@
       <c r="X7" s="3"/>
     </row>
     <row r="8" spans="2:24">
-      <c r="B8" s="10">
+      <c r="B8" s="4">
         <v>42706</v>
       </c>
       <c r="C8" s="3">
-        <f>SUM(D8:CN8)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D8" s="3"/>
@@ -946,11 +897,11 @@
       <c r="X8" s="3"/>
     </row>
     <row r="9" spans="2:24">
-      <c r="B9" s="10">
+      <c r="B9" s="4">
         <v>42707</v>
       </c>
       <c r="C9" s="3">
-        <f>SUM(D9:CN9)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D9" s="3"/>
@@ -976,11 +927,11 @@
       <c r="X9" s="3"/>
     </row>
     <row r="10" spans="2:24">
-      <c r="B10" s="10">
+      <c r="B10" s="4">
         <v>42708</v>
       </c>
       <c r="C10" s="3">
-        <f>SUM(D10:CN10)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D10" s="3"/>
@@ -1006,11 +957,11 @@
       <c r="X10" s="3"/>
     </row>
     <row r="11" spans="2:24">
-      <c r="B11" s="10">
+      <c r="B11" s="4">
         <v>42709</v>
       </c>
       <c r="C11" s="3">
-        <f>SUM(D11:CN11)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D11" s="3"/>
@@ -1036,11 +987,11 @@
       <c r="X11" s="3"/>
     </row>
     <row r="12" spans="2:24">
-      <c r="B12" s="10">
+      <c r="B12" s="4">
         <v>42710</v>
       </c>
       <c r="C12" s="3">
-        <f>SUM(D12:CN12)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D12" s="3"/>
@@ -1066,11 +1017,11 @@
       <c r="X12" s="3"/>
     </row>
     <row r="13" spans="2:24">
-      <c r="B13" s="10">
+      <c r="B13" s="4">
         <v>42711</v>
       </c>
       <c r="C13" s="3">
-        <f>SUM(D13:CN13)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D13" s="3"/>
@@ -1096,11 +1047,11 @@
       <c r="X13" s="3"/>
     </row>
     <row r="14" spans="2:24">
-      <c r="B14" s="10">
+      <c r="B14" s="4">
         <v>42712</v>
       </c>
       <c r="C14" s="3">
-        <f>SUM(D14:CN14)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D14" s="3"/>
@@ -1126,11 +1077,11 @@
       <c r="X14" s="3"/>
     </row>
     <row r="15" spans="2:24">
-      <c r="B15" s="10">
+      <c r="B15" s="4">
         <v>42713</v>
       </c>
       <c r="C15" s="3">
-        <f>SUM(D15:CN15)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D15" s="3"/>
@@ -1156,11 +1107,11 @@
       <c r="X15" s="3"/>
     </row>
     <row r="16" spans="2:24">
-      <c r="B16" s="10">
+      <c r="B16" s="4">
         <v>42714</v>
       </c>
       <c r="C16" s="3">
-        <f>SUM(D16:CN16)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D16" s="3"/>
@@ -1186,11 +1137,11 @@
       <c r="X16" s="3"/>
     </row>
     <row r="17" spans="2:24">
-      <c r="B17" s="10">
+      <c r="B17" s="4">
         <v>42715</v>
       </c>
       <c r="C17" s="3">
-        <f>SUM(D17:CN17)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D17" s="3"/>
@@ -1216,11 +1167,11 @@
       <c r="X17" s="3"/>
     </row>
     <row r="18" spans="2:24">
-      <c r="B18" s="10">
+      <c r="B18" s="4">
         <v>42716</v>
       </c>
       <c r="C18" s="3">
-        <f>SUM(D18:CN18)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D18" s="3"/>
@@ -1246,11 +1197,11 @@
       <c r="X18" s="3"/>
     </row>
     <row r="19" spans="2:24">
-      <c r="B19" s="10">
+      <c r="B19" s="4">
         <v>42717</v>
       </c>
       <c r="C19" s="3">
-        <f>SUM(D19:CN19)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D19" s="3"/>
@@ -1276,11 +1227,11 @@
       <c r="X19" s="3"/>
     </row>
     <row r="20" spans="2:24">
-      <c r="B20" s="10">
+      <c r="B20" s="4">
         <v>42718</v>
       </c>
       <c r="C20" s="3">
-        <f>SUM(D20:CN20)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D20" s="3"/>
@@ -1306,11 +1257,11 @@
       <c r="X20" s="3"/>
     </row>
     <row r="21" spans="2:24">
-      <c r="B21" s="10">
+      <c r="B21" s="4">
         <v>42719</v>
       </c>
       <c r="C21" s="3">
-        <f>SUM(D21:CN21)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D21" s="3"/>
@@ -1336,11 +1287,11 @@
       <c r="X21" s="3"/>
     </row>
     <row r="22" spans="2:24">
-      <c r="B22" s="10">
+      <c r="B22" s="4">
         <v>42720</v>
       </c>
       <c r="C22" s="3">
-        <f>SUM(D22:CN22)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D22" s="3"/>
@@ -1366,11 +1317,11 @@
       <c r="X22" s="3"/>
     </row>
     <row r="23" spans="2:24">
-      <c r="B23" s="10">
+      <c r="B23" s="4">
         <v>42721</v>
       </c>
       <c r="C23" s="3">
-        <f>SUM(D23:CN23)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D23" s="3"/>
@@ -1396,11 +1347,11 @@
       <c r="X23" s="3"/>
     </row>
     <row r="24" spans="2:24">
-      <c r="B24" s="10">
+      <c r="B24" s="4">
         <v>42722</v>
       </c>
       <c r="C24" s="3">
-        <f>SUM(D24:CN24)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D24" s="3"/>
@@ -1426,11 +1377,11 @@
       <c r="X24" s="3"/>
     </row>
     <row r="25" spans="2:24">
-      <c r="B25" s="10">
+      <c r="B25" s="4">
         <v>42723</v>
       </c>
       <c r="C25" s="3">
-        <f>SUM(D25:CN25)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D25" s="3"/>
@@ -1456,11 +1407,11 @@
       <c r="X25" s="3"/>
     </row>
     <row r="26" spans="2:24">
-      <c r="B26" s="10">
+      <c r="B26" s="4">
         <v>42724</v>
       </c>
       <c r="C26" s="3">
-        <f>SUM(D26:CN26)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D26" s="3"/>
@@ -1486,11 +1437,11 @@
       <c r="X26" s="3"/>
     </row>
     <row r="27" spans="2:24">
-      <c r="B27" s="10">
+      <c r="B27" s="4">
         <v>42725</v>
       </c>
       <c r="C27" s="3">
-        <f>SUM(D27:CN27)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D27" s="3"/>
@@ -1516,11 +1467,11 @@
       <c r="X27" s="3"/>
     </row>
     <row r="28" spans="2:24">
-      <c r="B28" s="10">
+      <c r="B28" s="4">
         <v>42726</v>
       </c>
       <c r="C28" s="3">
-        <f>SUM(D28:CN28)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D28" s="3"/>
@@ -1546,11 +1497,11 @@
       <c r="X28" s="3"/>
     </row>
     <row r="29" spans="2:24">
-      <c r="B29" s="10">
+      <c r="B29" s="4">
         <v>42727</v>
       </c>
       <c r="C29" s="3">
-        <f>SUM(D29:CN29)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D29" s="3"/>
@@ -1576,11 +1527,11 @@
       <c r="X29" s="3"/>
     </row>
     <row r="30" spans="2:24">
-      <c r="B30" s="10">
+      <c r="B30" s="4">
         <v>42728</v>
       </c>
       <c r="C30" s="3">
-        <f>SUM(D30:CN30)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D30" s="3"/>
@@ -1606,11 +1557,11 @@
       <c r="X30" s="3"/>
     </row>
     <row r="31" spans="2:24">
-      <c r="B31" s="10">
+      <c r="B31" s="4">
         <v>42729</v>
       </c>
       <c r="C31" s="3">
-        <f>SUM(D31:CN31)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D31" s="3"/>
@@ -1636,11 +1587,11 @@
       <c r="X31" s="3"/>
     </row>
     <row r="32" spans="2:24">
-      <c r="B32" s="10">
+      <c r="B32" s="4">
         <v>42730</v>
       </c>
       <c r="C32" s="3">
-        <f>SUM(D32:CN32)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D32" s="3"/>
@@ -1666,11 +1617,11 @@
       <c r="X32" s="3"/>
     </row>
     <row r="33" spans="2:24">
-      <c r="B33" s="10">
+      <c r="B33" s="4">
         <v>42731</v>
       </c>
       <c r="C33" s="3">
-        <f>SUM(D33:CN33)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D33" s="3"/>
@@ -1696,11 +1647,11 @@
       <c r="X33" s="3"/>
     </row>
     <row r="34" spans="2:24">
-      <c r="B34" s="10">
+      <c r="B34" s="4">
         <v>42732</v>
       </c>
       <c r="C34" s="3">
-        <f>SUM(D34:CN34)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D34" s="3"/>
@@ -1726,11 +1677,11 @@
       <c r="X34" s="3"/>
     </row>
     <row r="35" spans="2:24">
-      <c r="B35" s="10">
+      <c r="B35" s="4">
         <v>42733</v>
       </c>
       <c r="C35" s="3">
-        <f>SUM(D35:CN35)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D35" s="3"/>
@@ -1756,11 +1707,11 @@
       <c r="X35" s="3"/>
     </row>
     <row r="36" spans="2:24">
-      <c r="B36" s="10">
+      <c r="B36" s="4">
         <v>42734</v>
       </c>
       <c r="C36" s="3">
-        <f>SUM(D36:CN36)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D36" s="3"/>
@@ -1786,11 +1737,11 @@
       <c r="X36" s="3"/>
     </row>
     <row r="37" spans="2:24">
-      <c r="B37" s="10">
+      <c r="B37" s="4">
         <v>42735</v>
       </c>
       <c r="C37" s="3">
-        <f>SUM(D37:CN37)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D37" s="3"/>
@@ -1816,19 +1767,19 @@
       <c r="X37" s="3"/>
     </row>
     <row r="38" spans="2:24">
-      <c r="B38" s="11" t="s">
+      <c r="B38" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C38" s="12">
+      <c r="C38" s="6">
         <f>SUM(C7:C37)</f>
-        <v>0</v>
-      </c>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="12"/>
+        <v>470</v>
+      </c>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
@@ -1846,7 +1797,7 @@
       <c r="X38" s="3"/>
     </row>
     <row r="39" spans="2:24">
-      <c r="B39" s="10">
+      <c r="B39" s="4">
         <v>42736</v>
       </c>
       <c r="C39" s="3">
@@ -1876,7 +1827,7 @@
       <c r="X39" s="3"/>
     </row>
     <row r="40" spans="2:24">
-      <c r="B40" s="10">
+      <c r="B40" s="4">
         <v>42737</v>
       </c>
       <c r="C40" s="3">
@@ -1913,8 +1864,13 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D4:I5 D7:I37 D39:I40">
-    <cfRule type="containsBlanks" dxfId="0" priority="4">
+    <cfRule type="containsBlanks" dxfId="2" priority="5">
       <formula>LEN(TRIM(D4))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J4:X40">
+    <cfRule type="containsBlanks" dxfId="1" priority="1">
+      <formula>LEN(TRIM(J4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/每日支出详细.xlsx
+++ b/每日支出详细.xlsx
@@ -99,12 +99,36 @@
         </r>
       </text>
     </comment>
+    <comment ref="P11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+kindle</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>日期</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -153,6 +177,26 @@
     <t>买洗面奶</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>看电影</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和小二逛街，吃东西</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房贷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拍证件照</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小二生日礼物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -161,7 +205,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -207,6 +251,19 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -328,14 +385,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -643,7 +693,7 @@
   <dimension ref="B2:X40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -655,7 +705,11 @@
     <col min="7" max="7" width="12.25" style="1" customWidth="1"/>
     <col min="8" max="8" width="9" style="1"/>
     <col min="9" max="9" width="15" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
+    <col min="10" max="12" width="9" style="1"/>
+    <col min="13" max="13" width="19.875" style="1" customWidth="1"/>
+    <col min="14" max="15" width="9" style="1"/>
+    <col min="16" max="16" width="13.875" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:24">
@@ -716,11 +770,21 @@
       <c r="K3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
+      <c r="L3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
@@ -772,7 +836,7 @@
       </c>
       <c r="C5" s="3">
         <f>SUM(D5:CN5)</f>
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -786,7 +850,9 @@
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
+      <c r="L5" s="3">
+        <v>17</v>
+      </c>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
@@ -806,7 +872,7 @@
       </c>
       <c r="C6" s="6">
         <f>SUM(C4:C5)</f>
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -836,13 +902,15 @@
       </c>
       <c r="C7" s="3">
         <f t="shared" ref="C7:C37" si="0">SUM(D7:CN7)</f>
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3">
         <v>13</v>
       </c>
-      <c r="F7" s="3"/>
+      <c r="F7" s="3">
+        <v>5</v>
+      </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -902,7 +970,7 @@
       </c>
       <c r="C9" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -913,7 +981,9 @@
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
+      <c r="M9" s="3">
+        <v>36</v>
+      </c>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
@@ -962,11 +1032,13 @@
       </c>
       <c r="C11" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2704</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
+      <c r="F11" s="3">
+        <v>26</v>
+      </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -974,9 +1046,15 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
+      <c r="N11" s="3">
+        <v>2100</v>
+      </c>
+      <c r="O11" s="3">
+        <v>20</v>
+      </c>
+      <c r="P11" s="3">
+        <v>558</v>
+      </c>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
@@ -1772,7 +1850,7 @@
       </c>
       <c r="C38" s="6">
         <f>SUM(C7:C37)</f>
-        <v>470</v>
+        <v>3215</v>
       </c>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
@@ -1864,12 +1942,12 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D4:I5 D7:I37 D39:I40">
-    <cfRule type="containsBlanks" dxfId="2" priority="5">
+    <cfRule type="containsBlanks" dxfId="1" priority="5">
       <formula>LEN(TRIM(D4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:X40">
-    <cfRule type="containsBlanks" dxfId="1" priority="1">
+    <cfRule type="containsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(J4))=0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/每日支出详细.xlsx
+++ b/每日支出详细.xlsx
@@ -21,6 +21,32 @@
     <author>作者</author>
   </authors>
   <commentList>
+    <comment ref="I4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+按摩</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="F5" authorId="0">
       <text>
         <r>
@@ -47,7 +73,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J7" authorId="0">
+    <comment ref="H5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -69,7 +95,59 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-优衣库，羽绒背心</t>
+晚饭（干锅盔）</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+看电影</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+买洗面奶，高夫</t>
         </r>
       </text>
     </comment>
@@ -95,11 +173,63 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-高夫</t>
+优衣库，羽绒背心</t>
         </r>
       </text>
     </comment>
-    <comment ref="P11" authorId="0">
+    <comment ref="I9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+和小二逛街，吃东西</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+奶茶</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -120,6 +250,113 @@
           </rPr>
           <t xml:space="preserve">
 kindle</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+水果</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+按摩</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+窗台石订金：</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">100
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>木地板订金：</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1000</t>
         </r>
       </text>
     </comment>
@@ -128,7 +365,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>日期</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -146,10 +383,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>按摩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>支出总计</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -162,27 +395,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>晚饭（干锅盔）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>月总计</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>买衣服</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>买洗面奶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>看电影</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>和小二逛街，吃东西</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -195,6 +412,22 @@
   </si>
   <si>
     <t>小二生日礼物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装修</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>零食、水果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日常用品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>娱乐消费</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -385,7 +618,14 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -690,10 +930,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:X40"/>
+  <dimension ref="B2:U40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -702,25 +942,22 @@
     <col min="2" max="2" width="14.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="1" customWidth="1"/>
     <col min="4" max="6" width="9" style="1"/>
-    <col min="7" max="7" width="12.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9" style="1"/>
-    <col min="9" max="9" width="15" style="1" customWidth="1"/>
-    <col min="10" max="12" width="9" style="1"/>
-    <col min="13" max="13" width="19.875" style="1" customWidth="1"/>
-    <col min="14" max="15" width="9" style="1"/>
-    <col min="16" max="16" width="13.875" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="1"/>
+    <col min="7" max="7" width="10.25" style="1" customWidth="1"/>
+    <col min="8" max="10" width="12.25" style="1" customWidth="1"/>
+    <col min="11" max="13" width="9" style="1"/>
+    <col min="14" max="14" width="13.875" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:24">
+    <row r="2" spans="2:21">
       <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>5</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>6</v>
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
@@ -739,11 +976,8 @@
       <c r="S2" s="10"/>
       <c r="T2" s="10"/>
       <c r="U2" s="10"/>
-      <c r="V2" s="10"/>
-      <c r="W2" s="10"/>
-      <c r="X2" s="10"/>
-    </row>
-    <row r="3" spans="2:24">
+    </row>
+    <row r="3" spans="2:21">
       <c r="B3" s="8"/>
       <c r="C3" s="12"/>
       <c r="D3" s="2" t="s">
@@ -753,53 +987,48 @@
         <v>2</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="L3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-    </row>
-    <row r="4" spans="2:24">
+    </row>
+    <row r="4" spans="2:21">
       <c r="B4" s="4">
         <v>42703</v>
       </c>
       <c r="C4" s="3">
-        <f>SUM(D4:CN4)</f>
+        <f>SUM(D4:CK4)</f>
         <v>145</v>
       </c>
       <c r="D4" s="3"/>
@@ -807,14 +1036,14 @@
         <v>15</v>
       </c>
       <c r="F4" s="3"/>
-      <c r="G4" s="3">
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3">
+        <v>30</v>
+      </c>
+      <c r="J4" s="3">
         <v>100</v>
       </c>
-      <c r="H4" s="3">
-        <v>30</v>
-      </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
@@ -826,16 +1055,13 @@
       <c r="S4" s="3"/>
       <c r="T4" s="3"/>
       <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
-    </row>
-    <row r="5" spans="2:24">
+    </row>
+    <row r="5" spans="2:21">
       <c r="B5" s="4">
         <v>42704</v>
       </c>
       <c r="C5" s="3">
-        <f>SUM(D5:CN5)</f>
+        <f>SUM(D5:CK5)</f>
         <v>52</v>
       </c>
       <c r="D5" s="3"/>
@@ -844,15 +1070,15 @@
         <v>32</v>
       </c>
       <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
+      <c r="H5" s="3">
+        <v>3</v>
+      </c>
       <c r="I5" s="3">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
-      <c r="L5" s="3">
-        <v>17</v>
-      </c>
+      <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
@@ -862,13 +1088,10 @@
       <c r="S5" s="3"/>
       <c r="T5" s="3"/>
       <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
-      <c r="X5" s="3"/>
-    </row>
-    <row r="6" spans="2:24">
+    </row>
+    <row r="6" spans="2:21">
       <c r="B6" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C6" s="6">
         <f>SUM(C4:C5)</f>
@@ -877,10 +1100,10 @@
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
+      <c r="G6" s="3"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
-      <c r="J6" s="3"/>
+      <c r="J6" s="6"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
@@ -892,16 +1115,13 @@
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
       <c r="U6" s="3"/>
-      <c r="V6" s="3"/>
-      <c r="W6" s="3"/>
-      <c r="X6" s="3"/>
-    </row>
-    <row r="7" spans="2:24">
+    </row>
+    <row r="7" spans="2:21">
       <c r="B7" s="4">
         <v>42705</v>
       </c>
       <c r="C7" s="3">
-        <f t="shared" ref="C7:C37" si="0">SUM(D7:CN7)</f>
+        <f t="shared" ref="C7:C37" si="0">SUM(D7:CK7)</f>
         <v>475</v>
       </c>
       <c r="D7" s="3"/>
@@ -911,14 +1131,14 @@
       <c r="F7" s="3">
         <v>5</v>
       </c>
-      <c r="G7" s="3"/>
+      <c r="G7" s="3">
+        <v>58</v>
+      </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
-      <c r="J7" s="3">
+      <c r="J7" s="3"/>
+      <c r="K7" s="3">
         <v>399</v>
-      </c>
-      <c r="K7" s="3">
-        <v>58</v>
       </c>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
@@ -930,11 +1150,8 @@
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
       <c r="U7" s="3"/>
-      <c r="V7" s="3"/>
-      <c r="W7" s="3"/>
-      <c r="X7" s="3"/>
-    </row>
-    <row r="8" spans="2:24">
+    </row>
+    <row r="8" spans="2:21">
       <c r="B8" s="4">
         <v>42706</v>
       </c>
@@ -960,11 +1177,8 @@
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
       <c r="U8" s="3"/>
-      <c r="V8" s="3"/>
-      <c r="W8" s="3"/>
-      <c r="X8" s="3"/>
-    </row>
-    <row r="9" spans="2:24">
+    </row>
+    <row r="9" spans="2:21">
       <c r="B9" s="4">
         <v>42707</v>
       </c>
@@ -977,13 +1191,13 @@
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
+      <c r="I9" s="3">
+        <v>36</v>
+      </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
-      <c r="M9" s="3">
-        <v>36</v>
-      </c>
+      <c r="M9" s="3"/>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
@@ -992,11 +1206,8 @@
       <c r="S9" s="3"/>
       <c r="T9" s="3"/>
       <c r="U9" s="3"/>
-      <c r="V9" s="3"/>
-      <c r="W9" s="3"/>
-      <c r="X9" s="3"/>
-    </row>
-    <row r="10" spans="2:24">
+    </row>
+    <row r="10" spans="2:21">
       <c r="B10" s="4">
         <v>42708</v>
       </c>
@@ -1022,17 +1233,14 @@
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
       <c r="U10" s="3"/>
-      <c r="V10" s="3"/>
-      <c r="W10" s="3"/>
-      <c r="X10" s="3"/>
-    </row>
-    <row r="11" spans="2:24">
+    </row>
+    <row r="11" spans="2:21">
       <c r="B11" s="4">
         <v>42709</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" si="0"/>
-        <v>2704</v>
+        <v>2710</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -1040,61 +1248,67 @@
         <v>26</v>
       </c>
       <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
+      <c r="H11" s="3">
+        <v>6</v>
+      </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
+      <c r="L11" s="3">
+        <v>2100</v>
+      </c>
+      <c r="M11" s="3">
+        <v>20</v>
+      </c>
       <c r="N11" s="3">
-        <v>2100</v>
-      </c>
-      <c r="O11" s="3">
-        <v>20</v>
-      </c>
-      <c r="P11" s="3">
         <v>558</v>
       </c>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-      <c r="V11" s="3"/>
-      <c r="W11" s="3"/>
-      <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="2:24">
+    </row>
+    <row r="12" spans="2:21">
       <c r="B12" s="4">
         <v>42710</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1193</v>
       </c>
       <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
+      <c r="E12" s="3">
+        <v>16</v>
+      </c>
+      <c r="F12" s="3">
+        <v>32</v>
+      </c>
       <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
+      <c r="H12" s="3">
+        <v>5</v>
+      </c>
+      <c r="I12" s="3">
+        <v>40</v>
+      </c>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
+      <c r="O12" s="3">
+        <v>1100</v>
+      </c>
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
       <c r="U12" s="3"/>
-      <c r="V12" s="3"/>
-      <c r="W12" s="3"/>
-      <c r="X12" s="3"/>
-    </row>
-    <row r="13" spans="2:24">
+    </row>
+    <row r="13" spans="2:21">
       <c r="B13" s="4">
         <v>42711</v>
       </c>
@@ -1120,11 +1334,8 @@
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
       <c r="U13" s="3"/>
-      <c r="V13" s="3"/>
-      <c r="W13" s="3"/>
-      <c r="X13" s="3"/>
-    </row>
-    <row r="14" spans="2:24">
+    </row>
+    <row r="14" spans="2:21">
       <c r="B14" s="4">
         <v>42712</v>
       </c>
@@ -1150,11 +1361,8 @@
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
-      <c r="V14" s="3"/>
-      <c r="W14" s="3"/>
-      <c r="X14" s="3"/>
-    </row>
-    <row r="15" spans="2:24">
+    </row>
+    <row r="15" spans="2:21">
       <c r="B15" s="4">
         <v>42713</v>
       </c>
@@ -1180,11 +1388,8 @@
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
       <c r="U15" s="3"/>
-      <c r="V15" s="3"/>
-      <c r="W15" s="3"/>
-      <c r="X15" s="3"/>
-    </row>
-    <row r="16" spans="2:24">
+    </row>
+    <row r="16" spans="2:21">
       <c r="B16" s="4">
         <v>42714</v>
       </c>
@@ -1210,11 +1415,8 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-      <c r="V16" s="3"/>
-      <c r="W16" s="3"/>
-      <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="2:24">
+    </row>
+    <row r="17" spans="2:21">
       <c r="B17" s="4">
         <v>42715</v>
       </c>
@@ -1240,11 +1442,8 @@
       <c r="S17" s="3"/>
       <c r="T17" s="3"/>
       <c r="U17" s="3"/>
-      <c r="V17" s="3"/>
-      <c r="W17" s="3"/>
-      <c r="X17" s="3"/>
-    </row>
-    <row r="18" spans="2:24">
+    </row>
+    <row r="18" spans="2:21">
       <c r="B18" s="4">
         <v>42716</v>
       </c>
@@ -1270,11 +1469,8 @@
       <c r="S18" s="3"/>
       <c r="T18" s="3"/>
       <c r="U18" s="3"/>
-      <c r="V18" s="3"/>
-      <c r="W18" s="3"/>
-      <c r="X18" s="3"/>
-    </row>
-    <row r="19" spans="2:24">
+    </row>
+    <row r="19" spans="2:21">
       <c r="B19" s="4">
         <v>42717</v>
       </c>
@@ -1300,11 +1496,8 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-      <c r="V19" s="3"/>
-      <c r="W19" s="3"/>
-      <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="2:24">
+    </row>
+    <row r="20" spans="2:21">
       <c r="B20" s="4">
         <v>42718</v>
       </c>
@@ -1330,11 +1523,8 @@
       <c r="S20" s="3"/>
       <c r="T20" s="3"/>
       <c r="U20" s="3"/>
-      <c r="V20" s="3"/>
-      <c r="W20" s="3"/>
-      <c r="X20" s="3"/>
-    </row>
-    <row r="21" spans="2:24">
+    </row>
+    <row r="21" spans="2:21">
       <c r="B21" s="4">
         <v>42719</v>
       </c>
@@ -1360,11 +1550,8 @@
       <c r="S21" s="3"/>
       <c r="T21" s="3"/>
       <c r="U21" s="3"/>
-      <c r="V21" s="3"/>
-      <c r="W21" s="3"/>
-      <c r="X21" s="3"/>
-    </row>
-    <row r="22" spans="2:24">
+    </row>
+    <row r="22" spans="2:21">
       <c r="B22" s="4">
         <v>42720</v>
       </c>
@@ -1390,11 +1577,8 @@
       <c r="S22" s="3"/>
       <c r="T22" s="3"/>
       <c r="U22" s="3"/>
-      <c r="V22" s="3"/>
-      <c r="W22" s="3"/>
-      <c r="X22" s="3"/>
-    </row>
-    <row r="23" spans="2:24">
+    </row>
+    <row r="23" spans="2:21">
       <c r="B23" s="4">
         <v>42721</v>
       </c>
@@ -1420,11 +1604,8 @@
       <c r="S23" s="3"/>
       <c r="T23" s="3"/>
       <c r="U23" s="3"/>
-      <c r="V23" s="3"/>
-      <c r="W23" s="3"/>
-      <c r="X23" s="3"/>
-    </row>
-    <row r="24" spans="2:24">
+    </row>
+    <row r="24" spans="2:21">
       <c r="B24" s="4">
         <v>42722</v>
       </c>
@@ -1450,11 +1631,8 @@
       <c r="S24" s="3"/>
       <c r="T24" s="3"/>
       <c r="U24" s="3"/>
-      <c r="V24" s="3"/>
-      <c r="W24" s="3"/>
-      <c r="X24" s="3"/>
-    </row>
-    <row r="25" spans="2:24">
+    </row>
+    <row r="25" spans="2:21">
       <c r="B25" s="4">
         <v>42723</v>
       </c>
@@ -1480,11 +1658,8 @@
       <c r="S25" s="3"/>
       <c r="T25" s="3"/>
       <c r="U25" s="3"/>
-      <c r="V25" s="3"/>
-      <c r="W25" s="3"/>
-      <c r="X25" s="3"/>
-    </row>
-    <row r="26" spans="2:24">
+    </row>
+    <row r="26" spans="2:21">
       <c r="B26" s="4">
         <v>42724</v>
       </c>
@@ -1510,11 +1685,8 @@
       <c r="S26" s="3"/>
       <c r="T26" s="3"/>
       <c r="U26" s="3"/>
-      <c r="V26" s="3"/>
-      <c r="W26" s="3"/>
-      <c r="X26" s="3"/>
-    </row>
-    <row r="27" spans="2:24">
+    </row>
+    <row r="27" spans="2:21">
       <c r="B27" s="4">
         <v>42725</v>
       </c>
@@ -1540,11 +1712,8 @@
       <c r="S27" s="3"/>
       <c r="T27" s="3"/>
       <c r="U27" s="3"/>
-      <c r="V27" s="3"/>
-      <c r="W27" s="3"/>
-      <c r="X27" s="3"/>
-    </row>
-    <row r="28" spans="2:24">
+    </row>
+    <row r="28" spans="2:21">
       <c r="B28" s="4">
         <v>42726</v>
       </c>
@@ -1570,11 +1739,8 @@
       <c r="S28" s="3"/>
       <c r="T28" s="3"/>
       <c r="U28" s="3"/>
-      <c r="V28" s="3"/>
-      <c r="W28" s="3"/>
-      <c r="X28" s="3"/>
-    </row>
-    <row r="29" spans="2:24">
+    </row>
+    <row r="29" spans="2:21">
       <c r="B29" s="4">
         <v>42727</v>
       </c>
@@ -1600,11 +1766,8 @@
       <c r="S29" s="3"/>
       <c r="T29" s="3"/>
       <c r="U29" s="3"/>
-      <c r="V29" s="3"/>
-      <c r="W29" s="3"/>
-      <c r="X29" s="3"/>
-    </row>
-    <row r="30" spans="2:24">
+    </row>
+    <row r="30" spans="2:21">
       <c r="B30" s="4">
         <v>42728</v>
       </c>
@@ -1630,11 +1793,8 @@
       <c r="S30" s="3"/>
       <c r="T30" s="3"/>
       <c r="U30" s="3"/>
-      <c r="V30" s="3"/>
-      <c r="W30" s="3"/>
-      <c r="X30" s="3"/>
-    </row>
-    <row r="31" spans="2:24">
+    </row>
+    <row r="31" spans="2:21">
       <c r="B31" s="4">
         <v>42729</v>
       </c>
@@ -1660,11 +1820,8 @@
       <c r="S31" s="3"/>
       <c r="T31" s="3"/>
       <c r="U31" s="3"/>
-      <c r="V31" s="3"/>
-      <c r="W31" s="3"/>
-      <c r="X31" s="3"/>
-    </row>
-    <row r="32" spans="2:24">
+    </row>
+    <row r="32" spans="2:21">
       <c r="B32" s="4">
         <v>42730</v>
       </c>
@@ -1690,11 +1847,8 @@
       <c r="S32" s="3"/>
       <c r="T32" s="3"/>
       <c r="U32" s="3"/>
-      <c r="V32" s="3"/>
-      <c r="W32" s="3"/>
-      <c r="X32" s="3"/>
-    </row>
-    <row r="33" spans="2:24">
+    </row>
+    <row r="33" spans="2:21">
       <c r="B33" s="4">
         <v>42731</v>
       </c>
@@ -1720,11 +1874,8 @@
       <c r="S33" s="3"/>
       <c r="T33" s="3"/>
       <c r="U33" s="3"/>
-      <c r="V33" s="3"/>
-      <c r="W33" s="3"/>
-      <c r="X33" s="3"/>
-    </row>
-    <row r="34" spans="2:24">
+    </row>
+    <row r="34" spans="2:21">
       <c r="B34" s="4">
         <v>42732</v>
       </c>
@@ -1750,11 +1901,8 @@
       <c r="S34" s="3"/>
       <c r="T34" s="3"/>
       <c r="U34" s="3"/>
-      <c r="V34" s="3"/>
-      <c r="W34" s="3"/>
-      <c r="X34" s="3"/>
-    </row>
-    <row r="35" spans="2:24">
+    </row>
+    <row r="35" spans="2:21">
       <c r="B35" s="4">
         <v>42733</v>
       </c>
@@ -1780,11 +1928,8 @@
       <c r="S35" s="3"/>
       <c r="T35" s="3"/>
       <c r="U35" s="3"/>
-      <c r="V35" s="3"/>
-      <c r="W35" s="3"/>
-      <c r="X35" s="3"/>
-    </row>
-    <row r="36" spans="2:24">
+    </row>
+    <row r="36" spans="2:21">
       <c r="B36" s="4">
         <v>42734</v>
       </c>
@@ -1810,11 +1955,8 @@
       <c r="S36" s="3"/>
       <c r="T36" s="3"/>
       <c r="U36" s="3"/>
-      <c r="V36" s="3"/>
-      <c r="W36" s="3"/>
-      <c r="X36" s="3"/>
-    </row>
-    <row r="37" spans="2:24">
+    </row>
+    <row r="37" spans="2:21">
       <c r="B37" s="4">
         <v>42735</v>
       </c>
@@ -1840,25 +1982,22 @@
       <c r="S37" s="3"/>
       <c r="T37" s="3"/>
       <c r="U37" s="3"/>
-      <c r="V37" s="3"/>
-      <c r="W37" s="3"/>
-      <c r="X37" s="3"/>
-    </row>
-    <row r="38" spans="2:24">
+    </row>
+    <row r="38" spans="2:21">
       <c r="B38" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C38" s="6">
         <f>SUM(C7:C37)</f>
-        <v>3215</v>
+        <v>4414</v>
       </c>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
+      <c r="G38" s="3"/>
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
-      <c r="J38" s="3"/>
+      <c r="J38" s="6"/>
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
@@ -1870,16 +2009,13 @@
       <c r="S38" s="3"/>
       <c r="T38" s="3"/>
       <c r="U38" s="3"/>
-      <c r="V38" s="3"/>
-      <c r="W38" s="3"/>
-      <c r="X38" s="3"/>
-    </row>
-    <row r="39" spans="2:24">
+    </row>
+    <row r="39" spans="2:21">
       <c r="B39" s="4">
         <v>42736</v>
       </c>
       <c r="C39" s="3">
-        <f>SUM(D39:CN39)</f>
+        <f>SUM(D39:CK39)</f>
         <v>0</v>
       </c>
       <c r="D39" s="3"/>
@@ -1900,16 +2036,13 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-      <c r="V39" s="3"/>
-      <c r="W39" s="3"/>
-      <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24">
+    </row>
+    <row r="40" spans="2:21">
       <c r="B40" s="4">
         <v>42737</v>
       </c>
       <c r="C40" s="3">
-        <f>SUM(D40:CN40)</f>
+        <f>SUM(D40:CK40)</f>
         <v>0</v>
       </c>
       <c r="D40" s="3"/>
@@ -1930,25 +2063,17 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-      <c r="V40" s="3"/>
-      <c r="W40" s="3"/>
-      <c r="X40" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B2:B3"/>
-    <mergeCell ref="D2:X2"/>
+    <mergeCell ref="D2:U2"/>
     <mergeCell ref="C2:C3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D4:I5 D7:I37 D39:I40">
-    <cfRule type="containsBlanks" dxfId="1" priority="5">
+  <conditionalFormatting sqref="K4:U40 D4:J5 D7:J37 D39:J40 G4:I40">
+    <cfRule type="containsBlanks" dxfId="0" priority="5">
       <formula>LEN(TRIM(D4))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J4:X40">
-    <cfRule type="containsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(J4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/每日支出详细.xlsx
+++ b/每日支出详细.xlsx
@@ -357,6 +357,58 @@
             <family val="2"/>
           </rPr>
           <t>1000</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H14" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+板栗</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I14" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+看电影</t>
         </r>
       </text>
     </comment>
@@ -618,7 +670,21 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="5">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -933,7 +999,7 @@
   <dimension ref="B2:U40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1100,21 +1166,21 @@
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
-      <c r="G6" s="3"/>
+      <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
     </row>
     <row r="7" spans="2:21">
       <c r="B7" s="4">
@@ -1341,14 +1407,20 @@
       </c>
       <c r="C14" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
+      <c r="F14" s="3">
+        <v>13</v>
+      </c>
       <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
+      <c r="H14" s="3">
+        <v>15</v>
+      </c>
+      <c r="I14" s="3">
+        <v>35</v>
+      </c>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
@@ -1989,26 +2061,26 @@
       </c>
       <c r="C38" s="6">
         <f>SUM(C7:C37)</f>
-        <v>4414</v>
+        <v>4477</v>
       </c>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
-      <c r="G38" s="3"/>
+      <c r="G38" s="6"/>
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
       <c r="J38" s="6"/>
-      <c r="K38" s="3"/>
-      <c r="L38" s="3"/>
-      <c r="M38" s="3"/>
-      <c r="N38" s="3"/>
-      <c r="O38" s="3"/>
-      <c r="P38" s="3"/>
-      <c r="Q38" s="3"/>
-      <c r="R38" s="3"/>
-      <c r="S38" s="3"/>
-      <c r="T38" s="3"/>
-      <c r="U38" s="3"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="6"/>
+      <c r="N38" s="6"/>
+      <c r="O38" s="6"/>
+      <c r="P38" s="6"/>
+      <c r="Q38" s="6"/>
+      <c r="R38" s="6"/>
+      <c r="S38" s="6"/>
+      <c r="T38" s="6"/>
+      <c r="U38" s="6"/>
     </row>
     <row r="39" spans="2:21">
       <c r="B39" s="4">
@@ -2071,8 +2143,8 @@
     <mergeCell ref="C2:C3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="K4:U40 D4:J5 D7:J37 D39:J40 G4:I40">
-    <cfRule type="containsBlanks" dxfId="0" priority="5">
+  <conditionalFormatting sqref="D4:U5 D7:U37 D39:U40">
+    <cfRule type="containsBlanks" dxfId="1" priority="7">
       <formula>LEN(TRIM(D4))=0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/每日支出详细.xlsx
+++ b/每日支出详细.xlsx
@@ -151,7 +151,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K7" authorId="0">
+    <comment ref="L7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -229,7 +229,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N11" authorId="0">
+    <comment ref="O11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -305,7 +305,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O12" authorId="0">
+    <comment ref="P12" authorId="0">
       <text>
         <r>
           <rPr>
@@ -357,6 +357,141 @@
             <family val="2"/>
           </rPr>
           <t>1000</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+板栗</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+看电影</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G14" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+垃圾袋</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>香皂</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>洗发水</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>卫生纸</t>
         </r>
       </text>
     </comment>
@@ -408,7 +543,59 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-看电影</t>
+和小二吃饭</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J14" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+参苓健脾胃颗粒</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+锅盔</t>
         </r>
       </text>
     </comment>
@@ -417,7 +604,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>日期</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -480,6 +667,14 @@
   </si>
   <si>
     <t>娱乐消费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医药费用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复印证件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -670,28 +865,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -996,10 +1170,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:U40"/>
+  <dimension ref="B2:V40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1009,13 +1183,13 @@
     <col min="3" max="3" width="10" style="1" customWidth="1"/>
     <col min="4" max="6" width="9" style="1"/>
     <col min="7" max="7" width="10.25" style="1" customWidth="1"/>
-    <col min="8" max="10" width="12.25" style="1" customWidth="1"/>
-    <col min="11" max="13" width="9" style="1"/>
-    <col min="14" max="14" width="13.875" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="1"/>
+    <col min="8" max="11" width="12.25" style="1" customWidth="1"/>
+    <col min="12" max="14" width="9" style="1"/>
+    <col min="15" max="15" width="13.875" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:21">
+    <row r="2" spans="2:22">
       <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
@@ -1042,8 +1216,9 @@
       <c r="S2" s="10"/>
       <c r="T2" s="10"/>
       <c r="U2" s="10"/>
-    </row>
-    <row r="3" spans="2:21">
+      <c r="V2" s="10"/>
+    </row>
+    <row r="3" spans="2:22">
       <c r="B3" s="8"/>
       <c r="C3" s="12"/>
       <c r="D3" s="2" t="s">
@@ -1065,36 +1240,41 @@
         <v>15</v>
       </c>
       <c r="J3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
+      <c r="Q3" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
-    </row>
-    <row r="4" spans="2:21">
+      <c r="V3" s="2"/>
+    </row>
+    <row r="4" spans="2:22">
       <c r="B4" s="4">
         <v>42703</v>
       </c>
       <c r="C4" s="3">
-        <f>SUM(D4:CK4)</f>
+        <f>SUM(D4:CL4)</f>
         <v>145</v>
       </c>
       <c r="D4" s="3"/>
@@ -1107,10 +1287,10 @@
       <c r="I4" s="3">
         <v>30</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="3"/>
+      <c r="K4" s="3">
         <v>100</v>
       </c>
-      <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
@@ -1121,13 +1301,14 @@
       <c r="S4" s="3"/>
       <c r="T4" s="3"/>
       <c r="U4" s="3"/>
-    </row>
-    <row r="5" spans="2:21">
+      <c r="V4" s="3"/>
+    </row>
+    <row r="5" spans="2:22">
       <c r="B5" s="4">
         <v>42704</v>
       </c>
       <c r="C5" s="3">
-        <f>SUM(D5:CK5)</f>
+        <f>SUM(D5:CL5)</f>
         <v>52</v>
       </c>
       <c r="D5" s="3"/>
@@ -1154,8 +1335,9 @@
       <c r="S5" s="3"/>
       <c r="T5" s="3"/>
       <c r="U5" s="3"/>
-    </row>
-    <row r="6" spans="2:21">
+      <c r="V5" s="3"/>
+    </row>
+    <row r="6" spans="2:22">
       <c r="B6" s="5" t="s">
         <v>7</v>
       </c>
@@ -1181,13 +1363,14 @@
       <c r="S6" s="6"/>
       <c r="T6" s="6"/>
       <c r="U6" s="6"/>
-    </row>
-    <row r="7" spans="2:21">
+      <c r="V6" s="6"/>
+    </row>
+    <row r="7" spans="2:22">
       <c r="B7" s="4">
         <v>42705</v>
       </c>
       <c r="C7" s="3">
-        <f t="shared" ref="C7:C37" si="0">SUM(D7:CK7)</f>
+        <f t="shared" ref="C7:C37" si="0">SUM(D7:CL7)</f>
         <v>475</v>
       </c>
       <c r="D7" s="3"/>
@@ -1203,10 +1386,10 @@
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
-      <c r="K7" s="3">
+      <c r="K7" s="3"/>
+      <c r="L7" s="3">
         <v>399</v>
       </c>
-      <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
@@ -1216,8 +1399,9 @@
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
       <c r="U7" s="3"/>
-    </row>
-    <row r="8" spans="2:21">
+      <c r="V7" s="3"/>
+    </row>
+    <row r="8" spans="2:22">
       <c r="B8" s="4">
         <v>42706</v>
       </c>
@@ -1243,8 +1427,9 @@
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
       <c r="U8" s="3"/>
-    </row>
-    <row r="9" spans="2:21">
+      <c r="V8" s="3"/>
+    </row>
+    <row r="9" spans="2:22">
       <c r="B9" s="4">
         <v>42707</v>
       </c>
@@ -1272,8 +1457,9 @@
       <c r="S9" s="3"/>
       <c r="T9" s="3"/>
       <c r="U9" s="3"/>
-    </row>
-    <row r="10" spans="2:21">
+      <c r="V9" s="3"/>
+    </row>
+    <row r="10" spans="2:22">
       <c r="B10" s="4">
         <v>42708</v>
       </c>
@@ -1299,8 +1485,9 @@
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
       <c r="U10" s="3"/>
-    </row>
-    <row r="11" spans="2:21">
+      <c r="V10" s="3"/>
+    </row>
+    <row r="11" spans="2:22">
       <c r="B11" s="4">
         <v>42709</v>
       </c>
@@ -1320,24 +1507,25 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-      <c r="L11" s="3">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3">
         <v>2100</v>
       </c>
-      <c r="M11" s="3">
+      <c r="N11" s="3">
         <v>20</v>
       </c>
-      <c r="N11" s="3">
+      <c r="O11" s="3">
         <v>558</v>
       </c>
-      <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="2:21">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="2:22">
       <c r="B12" s="4">
         <v>42710</v>
       </c>
@@ -1364,30 +1552,37 @@
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
-      <c r="O12" s="3">
+      <c r="O12" s="3"/>
+      <c r="P12" s="3">
         <v>1100</v>
       </c>
-      <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
       <c r="U12" s="3"/>
-    </row>
-    <row r="13" spans="2:21">
+      <c r="V12" s="3"/>
+    </row>
+    <row r="13" spans="2:22">
       <c r="B13" s="4">
         <v>42711</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
+      <c r="F13" s="3">
+        <v>13</v>
+      </c>
       <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
+      <c r="H13" s="3">
+        <v>15</v>
+      </c>
+      <c r="I13" s="3">
+        <v>35</v>
+      </c>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
@@ -1400,53 +1595,63 @@
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
       <c r="U13" s="3"/>
-    </row>
-    <row r="14" spans="2:21">
+      <c r="V13" s="3"/>
+    </row>
+    <row r="14" spans="2:22">
       <c r="B14" s="4">
         <v>42712</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" si="0"/>
-        <v>63</v>
+        <v>205</v>
       </c>
       <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3">
-        <v>13</v>
-      </c>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3">
-        <v>15</v>
-      </c>
+      <c r="E14" s="3">
+        <v>12</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3">
+        <v>41</v>
+      </c>
+      <c r="H14" s="3"/>
       <c r="I14" s="3">
-        <v>35</v>
-      </c>
-      <c r="J14" s="3"/>
+        <v>120</v>
+      </c>
+      <c r="J14" s="3">
+        <v>28</v>
+      </c>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
+      <c r="Q14" s="3">
+        <v>4</v>
+      </c>
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
-    </row>
-    <row r="15" spans="2:21">
+      <c r="V14" s="3"/>
+    </row>
+    <row r="15" spans="2:22">
       <c r="B15" s="4">
         <v>42713</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
+      <c r="E15" s="3">
+        <v>16</v>
+      </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
+      <c r="H15" s="3">
+        <v>4</v>
+      </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
@@ -1460,8 +1665,9 @@
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
       <c r="U15" s="3"/>
-    </row>
-    <row r="16" spans="2:21">
+      <c r="V15" s="3"/>
+    </row>
+    <row r="16" spans="2:22">
       <c r="B16" s="4">
         <v>42714</v>
       </c>
@@ -1487,8 +1693,9 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="2:21">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="2:22">
       <c r="B17" s="4">
         <v>42715</v>
       </c>
@@ -1514,8 +1721,9 @@
       <c r="S17" s="3"/>
       <c r="T17" s="3"/>
       <c r="U17" s="3"/>
-    </row>
-    <row r="18" spans="2:21">
+      <c r="V17" s="3"/>
+    </row>
+    <row r="18" spans="2:22">
       <c r="B18" s="4">
         <v>42716</v>
       </c>
@@ -1541,8 +1749,9 @@
       <c r="S18" s="3"/>
       <c r="T18" s="3"/>
       <c r="U18" s="3"/>
-    </row>
-    <row r="19" spans="2:21">
+      <c r="V18" s="3"/>
+    </row>
+    <row r="19" spans="2:22">
       <c r="B19" s="4">
         <v>42717</v>
       </c>
@@ -1568,8 +1777,9 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="2:21">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="2:22">
       <c r="B20" s="4">
         <v>42718</v>
       </c>
@@ -1595,8 +1805,9 @@
       <c r="S20" s="3"/>
       <c r="T20" s="3"/>
       <c r="U20" s="3"/>
-    </row>
-    <row r="21" spans="2:21">
+      <c r="V20" s="3"/>
+    </row>
+    <row r="21" spans="2:22">
       <c r="B21" s="4">
         <v>42719</v>
       </c>
@@ -1622,8 +1833,9 @@
       <c r="S21" s="3"/>
       <c r="T21" s="3"/>
       <c r="U21" s="3"/>
-    </row>
-    <row r="22" spans="2:21">
+      <c r="V21" s="3"/>
+    </row>
+    <row r="22" spans="2:22">
       <c r="B22" s="4">
         <v>42720</v>
       </c>
@@ -1649,8 +1861,9 @@
       <c r="S22" s="3"/>
       <c r="T22" s="3"/>
       <c r="U22" s="3"/>
-    </row>
-    <row r="23" spans="2:21">
+      <c r="V22" s="3"/>
+    </row>
+    <row r="23" spans="2:22">
       <c r="B23" s="4">
         <v>42721</v>
       </c>
@@ -1676,8 +1889,9 @@
       <c r="S23" s="3"/>
       <c r="T23" s="3"/>
       <c r="U23" s="3"/>
-    </row>
-    <row r="24" spans="2:21">
+      <c r="V23" s="3"/>
+    </row>
+    <row r="24" spans="2:22">
       <c r="B24" s="4">
         <v>42722</v>
       </c>
@@ -1703,8 +1917,9 @@
       <c r="S24" s="3"/>
       <c r="T24" s="3"/>
       <c r="U24" s="3"/>
-    </row>
-    <row r="25" spans="2:21">
+      <c r="V24" s="3"/>
+    </row>
+    <row r="25" spans="2:22">
       <c r="B25" s="4">
         <v>42723</v>
       </c>
@@ -1730,8 +1945,9 @@
       <c r="S25" s="3"/>
       <c r="T25" s="3"/>
       <c r="U25" s="3"/>
-    </row>
-    <row r="26" spans="2:21">
+      <c r="V25" s="3"/>
+    </row>
+    <row r="26" spans="2:22">
       <c r="B26" s="4">
         <v>42724</v>
       </c>
@@ -1757,8 +1973,9 @@
       <c r="S26" s="3"/>
       <c r="T26" s="3"/>
       <c r="U26" s="3"/>
-    </row>
-    <row r="27" spans="2:21">
+      <c r="V26" s="3"/>
+    </row>
+    <row r="27" spans="2:22">
       <c r="B27" s="4">
         <v>42725</v>
       </c>
@@ -1784,8 +2001,9 @@
       <c r="S27" s="3"/>
       <c r="T27" s="3"/>
       <c r="U27" s="3"/>
-    </row>
-    <row r="28" spans="2:21">
+      <c r="V27" s="3"/>
+    </row>
+    <row r="28" spans="2:22">
       <c r="B28" s="4">
         <v>42726</v>
       </c>
@@ -1811,8 +2029,9 @@
       <c r="S28" s="3"/>
       <c r="T28" s="3"/>
       <c r="U28" s="3"/>
-    </row>
-    <row r="29" spans="2:21">
+      <c r="V28" s="3"/>
+    </row>
+    <row r="29" spans="2:22">
       <c r="B29" s="4">
         <v>42727</v>
       </c>
@@ -1838,8 +2057,9 @@
       <c r="S29" s="3"/>
       <c r="T29" s="3"/>
       <c r="U29" s="3"/>
-    </row>
-    <row r="30" spans="2:21">
+      <c r="V29" s="3"/>
+    </row>
+    <row r="30" spans="2:22">
       <c r="B30" s="4">
         <v>42728</v>
       </c>
@@ -1865,8 +2085,9 @@
       <c r="S30" s="3"/>
       <c r="T30" s="3"/>
       <c r="U30" s="3"/>
-    </row>
-    <row r="31" spans="2:21">
+      <c r="V30" s="3"/>
+    </row>
+    <row r="31" spans="2:22">
       <c r="B31" s="4">
         <v>42729</v>
       </c>
@@ -1892,8 +2113,9 @@
       <c r="S31" s="3"/>
       <c r="T31" s="3"/>
       <c r="U31" s="3"/>
-    </row>
-    <row r="32" spans="2:21">
+      <c r="V31" s="3"/>
+    </row>
+    <row r="32" spans="2:22">
       <c r="B32" s="4">
         <v>42730</v>
       </c>
@@ -1919,8 +2141,9 @@
       <c r="S32" s="3"/>
       <c r="T32" s="3"/>
       <c r="U32" s="3"/>
-    </row>
-    <row r="33" spans="2:21">
+      <c r="V32" s="3"/>
+    </row>
+    <row r="33" spans="2:22">
       <c r="B33" s="4">
         <v>42731</v>
       </c>
@@ -1946,8 +2169,9 @@
       <c r="S33" s="3"/>
       <c r="T33" s="3"/>
       <c r="U33" s="3"/>
-    </row>
-    <row r="34" spans="2:21">
+      <c r="V33" s="3"/>
+    </row>
+    <row r="34" spans="2:22">
       <c r="B34" s="4">
         <v>42732</v>
       </c>
@@ -1973,8 +2197,9 @@
       <c r="S34" s="3"/>
       <c r="T34" s="3"/>
       <c r="U34" s="3"/>
-    </row>
-    <row r="35" spans="2:21">
+      <c r="V34" s="3"/>
+    </row>
+    <row r="35" spans="2:22">
       <c r="B35" s="4">
         <v>42733</v>
       </c>
@@ -2000,8 +2225,9 @@
       <c r="S35" s="3"/>
       <c r="T35" s="3"/>
       <c r="U35" s="3"/>
-    </row>
-    <row r="36" spans="2:21">
+      <c r="V35" s="3"/>
+    </row>
+    <row r="36" spans="2:22">
       <c r="B36" s="4">
         <v>42734</v>
       </c>
@@ -2027,8 +2253,9 @@
       <c r="S36" s="3"/>
       <c r="T36" s="3"/>
       <c r="U36" s="3"/>
-    </row>
-    <row r="37" spans="2:21">
+      <c r="V36" s="3"/>
+    </row>
+    <row r="37" spans="2:22">
       <c r="B37" s="4">
         <v>42735</v>
       </c>
@@ -2054,14 +2281,15 @@
       <c r="S37" s="3"/>
       <c r="T37" s="3"/>
       <c r="U37" s="3"/>
-    </row>
-    <row r="38" spans="2:21">
+      <c r="V37" s="3"/>
+    </row>
+    <row r="38" spans="2:22">
       <c r="B38" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C38" s="6">
         <f>SUM(C7:C37)</f>
-        <v>4477</v>
+        <v>4702</v>
       </c>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
@@ -2081,13 +2309,14 @@
       <c r="S38" s="6"/>
       <c r="T38" s="6"/>
       <c r="U38" s="6"/>
-    </row>
-    <row r="39" spans="2:21">
+      <c r="V38" s="6"/>
+    </row>
+    <row r="39" spans="2:22">
       <c r="B39" s="4">
         <v>42736</v>
       </c>
       <c r="C39" s="3">
-        <f>SUM(D39:CK39)</f>
+        <f>SUM(D39:CL39)</f>
         <v>0</v>
       </c>
       <c r="D39" s="3"/>
@@ -2108,13 +2337,14 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22">
       <c r="B40" s="4">
         <v>42737</v>
       </c>
       <c r="C40" s="3">
-        <f>SUM(D40:CK40)</f>
+        <f>SUM(D40:CL40)</f>
         <v>0</v>
       </c>
       <c r="D40" s="3"/>
@@ -2135,16 +2365,17 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B2:B3"/>
-    <mergeCell ref="D2:U2"/>
+    <mergeCell ref="D2:V2"/>
     <mergeCell ref="C2:C3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D4:U5 D7:U37 D39:U40">
-    <cfRule type="containsBlanks" dxfId="1" priority="7">
+  <conditionalFormatting sqref="D4:V5 D39:V40 D7:V37">
+    <cfRule type="containsBlanks" dxfId="0" priority="7">
       <formula>LEN(TRIM(D4))=0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/每日支出详细.xlsx
+++ b/每日支出详细.xlsx
@@ -596,6 +596,133 @@
           </rPr>
           <t xml:space="preserve">
 锅盔</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H16" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+水</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 3
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>糖馍馍</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 2
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>锅盔</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 5</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I16" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+网球卡</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P16" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+柜子订金</t>
         </r>
       </text>
     </comment>
@@ -865,14 +992,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill>
@@ -1173,7 +1293,7 @@
   <dimension ref="B2:V40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1673,21 +1793,31 @@
       </c>
       <c r="C16" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1139</v>
       </c>
       <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
+      <c r="E16" s="3">
+        <v>22</v>
+      </c>
+      <c r="F16" s="3">
+        <v>9</v>
+      </c>
       <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
+      <c r="H16" s="3">
+        <v>10</v>
+      </c>
+      <c r="I16" s="3">
+        <v>598</v>
+      </c>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
+      <c r="P16" s="3">
+        <v>500</v>
+      </c>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
@@ -2289,7 +2419,7 @@
       </c>
       <c r="C38" s="6">
         <f>SUM(C7:C37)</f>
-        <v>4702</v>
+        <v>5841</v>
       </c>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>

--- a/每日支出详细.xlsx
+++ b/每日支出详细.xlsx
@@ -21,7 +21,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="I4" authorId="0">
+    <comment ref="J4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -73,7 +73,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H5" authorId="0">
+    <comment ref="I5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -99,7 +99,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I5" authorId="0">
+    <comment ref="J5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -151,7 +151,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L7" authorId="0">
+    <comment ref="M7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -177,7 +177,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I9" authorId="0">
+    <comment ref="J9" authorId="0">
       <text>
         <r>
           <rPr>
@@ -203,7 +203,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H11" authorId="0">
+    <comment ref="I11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -229,7 +229,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O11" authorId="0">
+    <comment ref="P11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -250,32 +250,6 @@
           </rPr>
           <t xml:space="preserve">
 kindle</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H12" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-水果</t>
         </r>
       </text>
     </comment>
@@ -301,11 +275,37 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-按摩</t>
+水果</t>
         </r>
       </text>
     </comment>
-    <comment ref="P12" authorId="0">
+    <comment ref="J12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+按摩</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q12" authorId="0">
       <text>
         <r>
           <rPr>
@@ -357,32 +357,6 @@
             <family val="2"/>
           </rPr>
           <t>1000</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-板栗</t>
         </r>
       </text>
     </comment>
@@ -408,6 +382,32 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
+板栗</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
 看电影</t>
         </r>
       </text>
@@ -495,7 +495,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H14" authorId="0">
+    <comment ref="I14" authorId="0">
       <text>
         <r>
           <rPr>
@@ -518,32 +518,6 @@
           </rPr>
           <t xml:space="preserve">
 板栗</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I14" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-和小二吃饭</t>
         </r>
       </text>
     </comment>
@@ -569,11 +543,37 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-参苓健脾胃颗粒</t>
+和小二吃饭</t>
         </r>
       </text>
     </comment>
-    <comment ref="H15" authorId="0">
+    <comment ref="K14" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+参苓健脾胃颗粒</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -596,81 +596,6 @@
           </rPr>
           <t xml:space="preserve">
 锅盔</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H16" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-水</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> 3
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>糖馍馍</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> 2
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>锅盔</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> 5</t>
         </r>
       </text>
     </comment>
@@ -696,11 +621,86 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-网球卡</t>
+水</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 3
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>糖馍馍</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 2
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>锅盔</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 5</t>
         </r>
       </text>
     </comment>
-    <comment ref="P16" authorId="0">
+    <comment ref="J16" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+网球卡</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q16" authorId="0">
       <text>
         <r>
           <rPr>
@@ -723,6 +723,84 @@
           </rPr>
           <t xml:space="preserve">
 柜子订金</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H17" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+充公交卡</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I17" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+烤红薯</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H18" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+公司办饭卡押金</t>
         </r>
       </text>
     </comment>
@@ -731,7 +809,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>日期</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -802,6 +880,10 @@
   </si>
   <si>
     <t>复印证件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日常消费</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1290,10 +1372,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:V40"/>
+  <dimension ref="B2:W40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1302,14 +1384,14 @@
     <col min="2" max="2" width="14.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="1" customWidth="1"/>
     <col min="4" max="6" width="9" style="1"/>
-    <col min="7" max="7" width="10.25" style="1" customWidth="1"/>
-    <col min="8" max="11" width="12.25" style="1" customWidth="1"/>
-    <col min="12" max="14" width="9" style="1"/>
-    <col min="15" max="15" width="13.875" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="1"/>
+    <col min="7" max="8" width="10.25" style="1" customWidth="1"/>
+    <col min="9" max="12" width="12.25" style="1" customWidth="1"/>
+    <col min="13" max="15" width="9" style="1"/>
+    <col min="16" max="16" width="13.875" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:22">
+    <row r="2" spans="2:23">
       <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
@@ -1337,8 +1419,9 @@
       <c r="T2" s="10"/>
       <c r="U2" s="10"/>
       <c r="V2" s="10"/>
-    </row>
-    <row r="3" spans="2:22">
+      <c r="W2" s="10"/>
+    </row>
+    <row r="3" spans="2:23">
       <c r="B3" s="8"/>
       <c r="C3" s="12"/>
       <c r="D3" s="2" t="s">
@@ -1354,47 +1437,50 @@
         <v>14</v>
       </c>
       <c r="H3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="R3" s="2"/>
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
-    </row>
-    <row r="4" spans="2:22">
+      <c r="W3" s="2"/>
+    </row>
+    <row r="4" spans="2:23">
       <c r="B4" s="4">
         <v>42703</v>
       </c>
       <c r="C4" s="3">
-        <f>SUM(D4:CL4)</f>
+        <f>SUM(D4:CM4)</f>
         <v>145</v>
       </c>
       <c r="D4" s="3"/>
@@ -1404,14 +1490,14 @@
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
-      <c r="I4" s="3">
+      <c r="I4" s="3"/>
+      <c r="J4" s="3">
         <v>30</v>
       </c>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3">
+      <c r="K4" s="3"/>
+      <c r="L4" s="3">
         <v>100</v>
       </c>
-      <c r="L4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
@@ -1422,13 +1508,14 @@
       <c r="T4" s="3"/>
       <c r="U4" s="3"/>
       <c r="V4" s="3"/>
-    </row>
-    <row r="5" spans="2:22">
+      <c r="W4" s="3"/>
+    </row>
+    <row r="5" spans="2:23">
       <c r="B5" s="4">
         <v>42704</v>
       </c>
       <c r="C5" s="3">
-        <f>SUM(D5:CL5)</f>
+        <f>SUM(D5:CM5)</f>
         <v>52</v>
       </c>
       <c r="D5" s="3"/>
@@ -1437,13 +1524,13 @@
         <v>32</v>
       </c>
       <c r="G5" s="3"/>
-      <c r="H5" s="3">
+      <c r="H5" s="3"/>
+      <c r="I5" s="3">
         <v>3</v>
       </c>
-      <c r="I5" s="3">
+      <c r="J5" s="3">
         <v>17</v>
       </c>
-      <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
@@ -1456,8 +1543,9 @@
       <c r="T5" s="3"/>
       <c r="U5" s="3"/>
       <c r="V5" s="3"/>
-    </row>
-    <row r="6" spans="2:22">
+      <c r="W5" s="3"/>
+    </row>
+    <row r="6" spans="2:23">
       <c r="B6" s="5" t="s">
         <v>7</v>
       </c>
@@ -1484,13 +1572,14 @@
       <c r="T6" s="6"/>
       <c r="U6" s="6"/>
       <c r="V6" s="6"/>
-    </row>
-    <row r="7" spans="2:22">
+      <c r="W6" s="6"/>
+    </row>
+    <row r="7" spans="2:23">
       <c r="B7" s="4">
         <v>42705</v>
       </c>
       <c r="C7" s="3">
-        <f t="shared" ref="C7:C37" si="0">SUM(D7:CL7)</f>
+        <f t="shared" ref="C7:C37" si="0">SUM(D7:CM7)</f>
         <v>475</v>
       </c>
       <c r="D7" s="3"/>
@@ -1507,10 +1596,10 @@
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
-      <c r="L7" s="3">
+      <c r="L7" s="3"/>
+      <c r="M7" s="3">
         <v>399</v>
       </c>
-      <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
@@ -1520,8 +1609,9 @@
       <c r="T7" s="3"/>
       <c r="U7" s="3"/>
       <c r="V7" s="3"/>
-    </row>
-    <row r="8" spans="2:22">
+      <c r="W7" s="3"/>
+    </row>
+    <row r="8" spans="2:23">
       <c r="B8" s="4">
         <v>42706</v>
       </c>
@@ -1548,8 +1638,9 @@
       <c r="T8" s="3"/>
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
-    </row>
-    <row r="9" spans="2:22">
+      <c r="W8" s="3"/>
+    </row>
+    <row r="9" spans="2:23">
       <c r="B9" s="4">
         <v>42707</v>
       </c>
@@ -1562,10 +1653,10 @@
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
-      <c r="I9" s="3">
+      <c r="I9" s="3"/>
+      <c r="J9" s="3">
         <v>36</v>
       </c>
-      <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
@@ -1578,8 +1669,9 @@
       <c r="T9" s="3"/>
       <c r="U9" s="3"/>
       <c r="V9" s="3"/>
-    </row>
-    <row r="10" spans="2:22">
+      <c r="W9" s="3"/>
+    </row>
+    <row r="10" spans="2:23">
       <c r="B10" s="4">
         <v>42708</v>
       </c>
@@ -1606,8 +1698,9 @@
       <c r="T10" s="3"/>
       <c r="U10" s="3"/>
       <c r="V10" s="3"/>
-    </row>
-    <row r="11" spans="2:22">
+      <c r="W10" s="3"/>
+    </row>
+    <row r="11" spans="2:23">
       <c r="B11" s="4">
         <v>42709</v>
       </c>
@@ -1621,31 +1714,32 @@
         <v>26</v>
       </c>
       <c r="G11" s="3"/>
-      <c r="H11" s="3">
+      <c r="H11" s="3"/>
+      <c r="I11" s="3">
         <v>6</v>
       </c>
-      <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-      <c r="M11" s="3">
+      <c r="M11" s="3"/>
+      <c r="N11" s="3">
         <v>2100</v>
       </c>
-      <c r="N11" s="3">
+      <c r="O11" s="3">
         <v>20</v>
       </c>
-      <c r="O11" s="3">
+      <c r="P11" s="3">
         <v>558</v>
       </c>
-      <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="2:22">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="2:23">
       <c r="B12" s="4">
         <v>42710</v>
       </c>
@@ -1661,29 +1755,30 @@
         <v>32</v>
       </c>
       <c r="G12" s="3"/>
-      <c r="H12" s="3">
+      <c r="H12" s="3"/>
+      <c r="I12" s="3">
         <v>5</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>40</v>
       </c>
-      <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
-      <c r="P12" s="3">
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3">
         <v>1100</v>
       </c>
-      <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
       <c r="U12" s="3"/>
       <c r="V12" s="3"/>
-    </row>
-    <row r="13" spans="2:22">
+      <c r="W12" s="3"/>
+    </row>
+    <row r="13" spans="2:23">
       <c r="B13" s="4">
         <v>42711</v>
       </c>
@@ -1697,13 +1792,13 @@
         <v>13</v>
       </c>
       <c r="G13" s="3"/>
-      <c r="H13" s="3">
+      <c r="H13" s="3"/>
+      <c r="I13" s="3">
         <v>15</v>
       </c>
-      <c r="I13" s="3">
+      <c r="J13" s="3">
         <v>35</v>
       </c>
-      <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
@@ -1716,8 +1811,9 @@
       <c r="T13" s="3"/>
       <c r="U13" s="3"/>
       <c r="V13" s="3"/>
-    </row>
-    <row r="14" spans="2:22">
+      <c r="W13" s="3"/>
+    </row>
+    <row r="14" spans="2:23">
       <c r="B14" s="4">
         <v>42712</v>
       </c>
@@ -1734,28 +1830,29 @@
         <v>41</v>
       </c>
       <c r="H14" s="3"/>
-      <c r="I14" s="3">
+      <c r="I14" s="3"/>
+      <c r="J14" s="3">
         <v>120</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>28</v>
       </c>
-      <c r="K14" s="3"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
-      <c r="Q14" s="3">
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3">
         <v>4</v>
       </c>
-      <c r="R14" s="3"/>
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
       <c r="V14" s="3"/>
-    </row>
-    <row r="15" spans="2:22">
+      <c r="W14" s="3"/>
+    </row>
+    <row r="15" spans="2:23">
       <c r="B15" s="4">
         <v>42713</v>
       </c>
@@ -1769,10 +1866,10 @@
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
-      <c r="H15" s="3">
+      <c r="H15" s="3"/>
+      <c r="I15" s="3">
         <v>4</v>
       </c>
-      <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
@@ -1786,8 +1883,9 @@
       <c r="T15" s="3"/>
       <c r="U15" s="3"/>
       <c r="V15" s="3"/>
-    </row>
-    <row r="16" spans="2:22">
+      <c r="W15" s="3"/>
+    </row>
+    <row r="16" spans="2:23">
       <c r="B16" s="4">
         <v>42714</v>
       </c>
@@ -1803,42 +1901,49 @@
         <v>9</v>
       </c>
       <c r="G16" s="3"/>
-      <c r="H16" s="3">
+      <c r="H16" s="3"/>
+      <c r="I16" s="3">
         <v>10</v>
       </c>
-      <c r="I16" s="3">
+      <c r="J16" s="3">
         <v>598</v>
       </c>
-      <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-      <c r="P16" s="3">
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3">
         <v>500</v>
       </c>
-      <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="2:22">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="2:23">
       <c r="B17" s="4">
         <v>42715</v>
       </c>
       <c r="C17" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
+      <c r="F17" s="3">
+        <v>26</v>
+      </c>
       <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
+      <c r="H17" s="3">
+        <v>20</v>
+      </c>
+      <c r="I17" s="3">
+        <v>8</v>
+      </c>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
@@ -1852,20 +1957,27 @@
       <c r="T17" s="3"/>
       <c r="U17" s="3"/>
       <c r="V17" s="3"/>
-    </row>
-    <row r="18" spans="2:22">
+      <c r="W17" s="3"/>
+    </row>
+    <row r="18" spans="2:23">
       <c r="B18" s="4">
         <v>42716</v>
       </c>
       <c r="C18" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
+      <c r="E18" s="3">
+        <v>15</v>
+      </c>
+      <c r="F18" s="3">
+        <v>23</v>
+      </c>
       <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
+      <c r="H18" s="3">
+        <v>50</v>
+      </c>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
@@ -1880,8 +1992,9 @@
       <c r="T18" s="3"/>
       <c r="U18" s="3"/>
       <c r="V18" s="3"/>
-    </row>
-    <row r="19" spans="2:22">
+      <c r="W18" s="3"/>
+    </row>
+    <row r="19" spans="2:23">
       <c r="B19" s="4">
         <v>42717</v>
       </c>
@@ -1908,8 +2021,9 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="2:22">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="2:23">
       <c r="B20" s="4">
         <v>42718</v>
       </c>
@@ -1936,8 +2050,9 @@
       <c r="T20" s="3"/>
       <c r="U20" s="3"/>
       <c r="V20" s="3"/>
-    </row>
-    <row r="21" spans="2:22">
+      <c r="W20" s="3"/>
+    </row>
+    <row r="21" spans="2:23">
       <c r="B21" s="4">
         <v>42719</v>
       </c>
@@ -1964,8 +2079,9 @@
       <c r="T21" s="3"/>
       <c r="U21" s="3"/>
       <c r="V21" s="3"/>
-    </row>
-    <row r="22" spans="2:22">
+      <c r="W21" s="3"/>
+    </row>
+    <row r="22" spans="2:23">
       <c r="B22" s="4">
         <v>42720</v>
       </c>
@@ -1992,8 +2108,9 @@
       <c r="T22" s="3"/>
       <c r="U22" s="3"/>
       <c r="V22" s="3"/>
-    </row>
-    <row r="23" spans="2:22">
+      <c r="W22" s="3"/>
+    </row>
+    <row r="23" spans="2:23">
       <c r="B23" s="4">
         <v>42721</v>
       </c>
@@ -2020,8 +2137,9 @@
       <c r="T23" s="3"/>
       <c r="U23" s="3"/>
       <c r="V23" s="3"/>
-    </row>
-    <row r="24" spans="2:22">
+      <c r="W23" s="3"/>
+    </row>
+    <row r="24" spans="2:23">
       <c r="B24" s="4">
         <v>42722</v>
       </c>
@@ -2048,8 +2166,9 @@
       <c r="T24" s="3"/>
       <c r="U24" s="3"/>
       <c r="V24" s="3"/>
-    </row>
-    <row r="25" spans="2:22">
+      <c r="W24" s="3"/>
+    </row>
+    <row r="25" spans="2:23">
       <c r="B25" s="4">
         <v>42723</v>
       </c>
@@ -2076,8 +2195,9 @@
       <c r="T25" s="3"/>
       <c r="U25" s="3"/>
       <c r="V25" s="3"/>
-    </row>
-    <row r="26" spans="2:22">
+      <c r="W25" s="3"/>
+    </row>
+    <row r="26" spans="2:23">
       <c r="B26" s="4">
         <v>42724</v>
       </c>
@@ -2104,8 +2224,9 @@
       <c r="T26" s="3"/>
       <c r="U26" s="3"/>
       <c r="V26" s="3"/>
-    </row>
-    <row r="27" spans="2:22">
+      <c r="W26" s="3"/>
+    </row>
+    <row r="27" spans="2:23">
       <c r="B27" s="4">
         <v>42725</v>
       </c>
@@ -2132,8 +2253,9 @@
       <c r="T27" s="3"/>
       <c r="U27" s="3"/>
       <c r="V27" s="3"/>
-    </row>
-    <row r="28" spans="2:22">
+      <c r="W27" s="3"/>
+    </row>
+    <row r="28" spans="2:23">
       <c r="B28" s="4">
         <v>42726</v>
       </c>
@@ -2160,8 +2282,9 @@
       <c r="T28" s="3"/>
       <c r="U28" s="3"/>
       <c r="V28" s="3"/>
-    </row>
-    <row r="29" spans="2:22">
+      <c r="W28" s="3"/>
+    </row>
+    <row r="29" spans="2:23">
       <c r="B29" s="4">
         <v>42727</v>
       </c>
@@ -2188,8 +2311,9 @@
       <c r="T29" s="3"/>
       <c r="U29" s="3"/>
       <c r="V29" s="3"/>
-    </row>
-    <row r="30" spans="2:22">
+      <c r="W29" s="3"/>
+    </row>
+    <row r="30" spans="2:23">
       <c r="B30" s="4">
         <v>42728</v>
       </c>
@@ -2216,8 +2340,9 @@
       <c r="T30" s="3"/>
       <c r="U30" s="3"/>
       <c r="V30" s="3"/>
-    </row>
-    <row r="31" spans="2:22">
+      <c r="W30" s="3"/>
+    </row>
+    <row r="31" spans="2:23">
       <c r="B31" s="4">
         <v>42729</v>
       </c>
@@ -2244,8 +2369,9 @@
       <c r="T31" s="3"/>
       <c r="U31" s="3"/>
       <c r="V31" s="3"/>
-    </row>
-    <row r="32" spans="2:22">
+      <c r="W31" s="3"/>
+    </row>
+    <row r="32" spans="2:23">
       <c r="B32" s="4">
         <v>42730</v>
       </c>
@@ -2272,8 +2398,9 @@
       <c r="T32" s="3"/>
       <c r="U32" s="3"/>
       <c r="V32" s="3"/>
-    </row>
-    <row r="33" spans="2:22">
+      <c r="W32" s="3"/>
+    </row>
+    <row r="33" spans="2:23">
       <c r="B33" s="4">
         <v>42731</v>
       </c>
@@ -2300,8 +2427,9 @@
       <c r="T33" s="3"/>
       <c r="U33" s="3"/>
       <c r="V33" s="3"/>
-    </row>
-    <row r="34" spans="2:22">
+      <c r="W33" s="3"/>
+    </row>
+    <row r="34" spans="2:23">
       <c r="B34" s="4">
         <v>42732</v>
       </c>
@@ -2328,8 +2456,9 @@
       <c r="T34" s="3"/>
       <c r="U34" s="3"/>
       <c r="V34" s="3"/>
-    </row>
-    <row r="35" spans="2:22">
+      <c r="W34" s="3"/>
+    </row>
+    <row r="35" spans="2:23">
       <c r="B35" s="4">
         <v>42733</v>
       </c>
@@ -2356,8 +2485,9 @@
       <c r="T35" s="3"/>
       <c r="U35" s="3"/>
       <c r="V35" s="3"/>
-    </row>
-    <row r="36" spans="2:22">
+      <c r="W35" s="3"/>
+    </row>
+    <row r="36" spans="2:23">
       <c r="B36" s="4">
         <v>42734</v>
       </c>
@@ -2384,8 +2514,9 @@
       <c r="T36" s="3"/>
       <c r="U36" s="3"/>
       <c r="V36" s="3"/>
-    </row>
-    <row r="37" spans="2:22">
+      <c r="W36" s="3"/>
+    </row>
+    <row r="37" spans="2:23">
       <c r="B37" s="4">
         <v>42735</v>
       </c>
@@ -2412,14 +2543,15 @@
       <c r="T37" s="3"/>
       <c r="U37" s="3"/>
       <c r="V37" s="3"/>
-    </row>
-    <row r="38" spans="2:22">
+      <c r="W37" s="3"/>
+    </row>
+    <row r="38" spans="2:23">
       <c r="B38" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C38" s="6">
         <f>SUM(C7:C37)</f>
-        <v>5841</v>
+        <v>5983</v>
       </c>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
@@ -2440,13 +2572,14 @@
       <c r="T38" s="6"/>
       <c r="U38" s="6"/>
       <c r="V38" s="6"/>
-    </row>
-    <row r="39" spans="2:22">
+      <c r="W38" s="6"/>
+    </row>
+    <row r="39" spans="2:23">
       <c r="B39" s="4">
         <v>42736</v>
       </c>
       <c r="C39" s="3">
-        <f>SUM(D39:CL39)</f>
+        <f>SUM(D39:CM39)</f>
         <v>0</v>
       </c>
       <c r="D39" s="3"/>
@@ -2468,13 +2601,14 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23">
       <c r="B40" s="4">
         <v>42737</v>
       </c>
       <c r="C40" s="3">
-        <f>SUM(D40:CL40)</f>
+        <f>SUM(D40:CM40)</f>
         <v>0</v>
       </c>
       <c r="D40" s="3"/>
@@ -2496,15 +2630,16 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B2:B3"/>
-    <mergeCell ref="D2:V2"/>
+    <mergeCell ref="D2:W2"/>
     <mergeCell ref="C2:C3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D4:V5 D39:V40 D7:V37">
+  <conditionalFormatting sqref="D4:W5 D39:W40 D7:W37">
     <cfRule type="containsBlanks" dxfId="0" priority="7">
       <formula>LEN(TRIM(D4))=0</formula>
     </cfRule>

--- a/每日支出详细.xlsx
+++ b/每日支出详细.xlsx
@@ -1375,7 +1375,7 @@
   <dimension ref="B2:W40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2000,11 +2000,13 @@
       </c>
       <c r="C19" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
+      <c r="F19" s="3">
+        <v>24</v>
+      </c>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
@@ -2551,7 +2553,7 @@
       </c>
       <c r="C38" s="6">
         <f>SUM(C7:C37)</f>
-        <v>5983</v>
+        <v>6007</v>
       </c>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
